--- a/Data(1).xlsx
+++ b/Data(1).xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christine.Moore\Documents\UiPath\HUB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D6ABA21-BADA-482C-B9B3-300958DCE931}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{309B1CA2-FBB7-4C51-A5AF-5D42C8036D3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="9600" windowHeight="4970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="570" windowWidth="9600" windowHeight="4965" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Movies" sheetId="3" r:id="rId1"/>
+    <sheet name="Movie Names" sheetId="4" r:id="rId2"/>
+    <sheet name="Movie URLs" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="69">
   <si>
     <t>Movie Name</t>
   </si>
@@ -33,28 +35,205 @@
     <t>It</t>
   </si>
   <si>
+    <t>Star Wars: The Last Jedi</t>
+  </si>
+  <si>
+    <t>Ready Player One</t>
+  </si>
+  <si>
+    <t>Incredibles 2</t>
+  </si>
+  <si>
+    <t>Avengers: Infinity War</t>
+  </si>
+  <si>
+    <t>The Lego Batman Movie</t>
+  </si>
+  <si>
+    <t>The Boss Baby</t>
+  </si>
+  <si>
+    <t>Inside Out</t>
+  </si>
+  <si>
+    <t>Black Panther</t>
+  </si>
+  <si>
     <t>Trailer Name</t>
   </si>
   <si>
     <t>URL</t>
   </si>
   <si>
+    <t>Marvel Studios' Black Panther - Official Trailer</t>
+  </si>
+  <si>
+    <t>/watch?v=xjDjIWPwcPU&amp;t=49s</t>
+  </si>
+  <si>
+    <t>Black Panther Teaser Trailer [HD]</t>
+  </si>
+  <si>
+    <t>/watch?v=dxWvtMOGAhw&amp;t=4s</t>
+  </si>
+  <si>
+    <t>Black Panther Official Trailer #1 (2018) Chadwick Boseman Marvel Movie HD</t>
+  </si>
+  <si>
+    <t>/watch?v=yLNLPECROMA&amp;t=3s</t>
+  </si>
+  <si>
     <t>IT - Official Trailer 1</t>
   </si>
   <si>
-    <t>/watch?v=xKJmEC5ieOk&amp;t=3s</t>
+    <t>/watch?v=xKJmEC5ieOk&amp;t=6s</t>
+  </si>
+  <si>
+    <t>Last Christmas - Official Trailer</t>
+  </si>
+  <si>
+    <t>/watch?v=z9CEIcmWmtA</t>
+  </si>
+  <si>
+    <t>IT - Official Teaser Trailer</t>
+  </si>
+  <si>
+    <t>/watch?v=FnCdOQsX5kc&amp;t=3s</t>
+  </si>
+  <si>
+    <t>Star Wars: The Last Jedi Trailer (Official)</t>
+  </si>
+  <si>
+    <t>/watch?v=Q0CbN8sfihY</t>
+  </si>
+  <si>
+    <t>Star Wars: The Last Jedi Official Teaser</t>
+  </si>
+  <si>
+    <t>/watch?v=zB4I68XVPzQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STAR WARS: THE LAST JEDI (2017) | Full Movie Trailer | Full HD | 1080p</t>
+  </si>
+  <si>
+    <t>/watch?v=_iDA4_-TESM</t>
+  </si>
+  <si>
+    <t>READY PLAYER ONE - Official Trailer 1 [HD]</t>
+  </si>
+  <si>
+    <t>/watch?v=cSp1dM2Vj48&amp;t=51s</t>
+  </si>
+  <si>
+    <t>READY PLAYER ONE Final Trailer (2018)</t>
+  </si>
+  <si>
+    <t>/watch?v=ixWL1BWi44U&amp;t=172s</t>
+  </si>
+  <si>
+    <t>Ready Player One Comic-Con Trailer (2018) | Movieclips Trailers</t>
+  </si>
+  <si>
+    <t>/watch?v=LiK2fhOY0nE</t>
+  </si>
+  <si>
+    <t>Incredibles 2 Official Trailer</t>
+  </si>
+  <si>
+    <t>/watch?v=i5qOzqD9Rms&amp;t=36s</t>
+  </si>
+  <si>
+    <t>INCREDIBLES 2 Official Trailer #2 (2018) Disney Animated Superhero Movie HD</t>
+  </si>
+  <si>
+    <t>/watch?v=JwwY8gx_2LA</t>
+  </si>
+  <si>
+    <t>Incredibles 2 Official Teaser Trailer</t>
+  </si>
+  <si>
+    <t>/watch?v=ZJDMWVZta3M</t>
+  </si>
+  <si>
+    <t>Marvel Studios' Avengers: Infinity War Official Trailer</t>
+  </si>
+  <si>
+    <t>/watch?v=6ZfuNTqbHE8</t>
+  </si>
+  <si>
+    <t>Marvel Studios' Avengers: Infinity War - Official Trailer</t>
+  </si>
+  <si>
+    <t>/watch?v=QwievZ1Tx-8</t>
+  </si>
+  <si>
+    <t>AVENGERS INFINITY WAR Official Trailer 3 - 1 (Extended) Marvel</t>
+  </si>
+  <si>
+    <t>/watch?v=mdRo6HIaWEc</t>
+  </si>
+  <si>
+    <t>The LEGO Batman Movie Official Comic-Con Trailer (2017) - Will Arnett Movie</t>
+  </si>
+  <si>
+    <t>/watch?v=h6DOpfJzmo0</t>
+  </si>
+  <si>
+    <t>THE LEGO BATMAN MOVIE Trailer 1 - 3 (2017)</t>
+  </si>
+  <si>
+    <t>/watch?v=LZSQTVdF3QM</t>
+  </si>
+  <si>
+    <t>The Lego Batman Movie Official Trailer 4 (2017) - Will Arnett Movie</t>
+  </si>
+  <si>
+    <t>/watch?v=LqrQKZlCcjo</t>
+  </si>
+  <si>
+    <t>The Boss Baby Official Trailer #1 (2017) Alec Baldwin, Lisa Kudrow Animated Movie HD</t>
+  </si>
+  <si>
+    <t>/watch?v=r8kE7rSzfQs&amp;t=1s</t>
+  </si>
+  <si>
+    <t>The Boss Baby Official Trailer 1 (2017) - Alec Baldwin Movie</t>
+  </si>
+  <si>
+    <t>/watch?v=k397HRbTtWI</t>
+  </si>
+  <si>
+    <t>THE BOSS BABY | Official Trailer</t>
+  </si>
+  <si>
+    <t>/watch?v=Ud8j5GaqH3c</t>
+  </si>
+  <si>
+    <t>Inside Out - Official US Trailer</t>
+  </si>
+  <si>
+    <t>/watch?v=yRUAzGQ3nSY</t>
+  </si>
+  <si>
+    <t>Inside Out Official Trailer #2 (2015) - Disney Pixar Movie HD</t>
+  </si>
+  <si>
+    <t>/watch?v=seMwpP0yeu4</t>
+  </si>
+  <si>
+    <t>Inside Out 2 - 2020 Movie Trailer</t>
+  </si>
+  <si>
+    <t>/watch?v=3bjHLsZWHgg</t>
+  </si>
+  <si>
+    <t>Interstellar</t>
   </si>
   <si>
     <t>IT CHAPTER TWO - Final Trailer [HD]</t>
   </si>
   <si>
-    <t>/watch?v=xhJ5P7Up3jA&amp;t=8s</t>
-  </si>
-  <si>
-    <t>IT - Official Teaser Trailer</t>
-  </si>
-  <si>
-    <t>/watch?v=FnCdOQsX5kc</t>
+    <t>/watch?v=xhJ5P7Up3jA&amp;t=11s</t>
   </si>
 </sst>
 </file>
@@ -378,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BF02A3-3282-414E-ABDD-8E45600DA7E8}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -398,21 +577,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -421,13 +600,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -439,10 +618,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -450,18 +629,401 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="2"/>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAE3971-80BB-4C46-BDEB-9FA9C8460CCB}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E7C7D3-C3E2-429F-9031-2F802AB73538}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
